--- a/data_routes/bus_timings.xlsx
+++ b/data_routes/bus_timings.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ronak\CODING\PROJECTS\vtransport\data_routes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA89C29-B036-44A6-B307-672C1D82F912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW BUS TIME DETAILS-24" sheetId="4" r:id="rId1"/>
@@ -1350,7 +1356,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1536,7 +1542,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1556,13 +1562,13 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1608,13 +1614,6 @@
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1686,7 +1685,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1698,20 +1696,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1725,19 +1723,19 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="2"/>
-    <cellStyle name="Normal 5" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2007,42 +2005,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C766"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C217" sqref="C217:C219"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
@@ -2053,7 +2051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -2064,7 +2062,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -2075,7 +2073,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -2086,7 +2084,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -2097,7 +2095,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -2108,24 +2106,24 @@
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
@@ -2136,7 +2134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>1</v>
       </c>
@@ -2147,7 +2145,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>2</v>
       </c>
@@ -2158,7 +2156,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>3</v>
       </c>
@@ -2169,7 +2167,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>4</v>
       </c>
@@ -2180,7 +2178,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>5</v>
       </c>
@@ -2191,7 +2189,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>6</v>
       </c>
@@ -2202,119 +2200,117 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="61"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="61"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="65" t="s">
         <v>436</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="60" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="62">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="58">
         <v>1</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="61" t="s">
         <v>437</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="62">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="58">
         <v>2</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="61" t="s">
         <v>438</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="60" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="62">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="58">
         <v>3</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="60" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="62">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="58">
         <v>4</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="62" t="s">
         <v>440</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="60" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="62">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="58">
         <v>6</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="62" t="s">
         <v>441</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="60" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="62">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="58">
         <v>7</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="60" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="62">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="58">
         <v>8</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="68" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>13</v>
       </c>
@@ -2325,7 +2321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>1</v>
       </c>
@@ -2336,7 +2332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>2</v>
       </c>
@@ -2347,7 +2343,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>3</v>
       </c>
@@ -2358,7 +2354,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>4</v>
       </c>
@@ -2369,7 +2365,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>5</v>
       </c>
@@ -2380,24 +2376,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="68" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>13</v>
       </c>
@@ -2408,7 +2404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>1</v>
       </c>
@@ -2419,7 +2415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>2</v>
       </c>
@@ -2430,7 +2426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>3</v>
       </c>
@@ -2441,7 +2437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>4</v>
       </c>
@@ -2452,7 +2448,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>5</v>
       </c>
@@ -2463,24 +2459,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="23"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="C48" s="18"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="68" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>13</v>
       </c>
@@ -2491,7 +2487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>1</v>
       </c>
@@ -2502,7 +2498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>2</v>
       </c>
@@ -2513,7 +2509,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>3</v>
       </c>
@@ -2524,7 +2520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>4</v>
       </c>
@@ -2535,19 +2531,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="16"/>
       <c r="B55" s="17"/>
       <c r="C55" s="18"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="68" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>13</v>
       </c>
@@ -2558,7 +2554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
         <v>1</v>
       </c>
@@ -2569,7 +2565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>2</v>
       </c>
@@ -2580,7 +2576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
         <v>3</v>
       </c>
@@ -2591,7 +2587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>4</v>
       </c>
@@ -2602,7 +2598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
         <v>5</v>
       </c>
@@ -2613,19 +2609,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="68" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="68"/>
-      <c r="C64" s="68"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>13</v>
       </c>
@@ -2636,7 +2632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
         <v>1</v>
       </c>
@@ -2647,7 +2643,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="13">
         <v>2</v>
       </c>
@@ -2658,7 +2654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
         <v>3</v>
       </c>
@@ -2669,7 +2665,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="13">
         <v>4</v>
       </c>
@@ -2680,29 +2676,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="16"/>
       <c r="B70" s="17"/>
       <c r="C70" s="18"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="16"/>
       <c r="B71" s="17"/>
       <c r="C71" s="18"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="16"/>
       <c r="B72" s="17"/>
       <c r="C72" s="18"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="69" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="69"/>
-      <c r="C73" s="69"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="24" t="s">
         <v>13</v>
       </c>
@@ -2713,7 +2709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>1</v>
       </c>
@@ -2724,7 +2720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="24">
         <v>2</v>
       </c>
@@ -2735,7 +2731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>3</v>
       </c>
@@ -2746,7 +2742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="24">
         <v>4</v>
       </c>
@@ -2757,14 +2753,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="67" t="s">
         <v>72</v>
       </c>
       <c r="B82" s="67"/>
       <c r="C82" s="67"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="25" t="s">
         <v>13</v>
       </c>
@@ -2775,7 +2771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -2786,7 +2782,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>2</v>
       </c>
@@ -2797,7 +2793,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>3</v>
       </c>
@@ -2808,7 +2804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>4</v>
       </c>
@@ -2819,7 +2815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>5</v>
       </c>
@@ -2830,7 +2826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>6</v>
       </c>
@@ -2841,14 +2837,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="67" t="s">
         <v>78</v>
       </c>
       <c r="B97" s="67"/>
       <c r="C97" s="67"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="25" t="s">
         <v>13</v>
       </c>
@@ -2859,7 +2855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1</v>
       </c>
@@ -2870,7 +2866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>2</v>
       </c>
@@ -2881,7 +2877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>3</v>
       </c>
@@ -2892,7 +2888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>4</v>
       </c>
@@ -2903,7 +2899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>5</v>
       </c>
@@ -2914,7 +2910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>6</v>
       </c>
@@ -2925,14 +2921,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="68" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="B107" s="68"/>
-      <c r="C107" s="68"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="11" t="s">
         <v>13</v>
       </c>
@@ -2943,7 +2939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="13">
         <v>1</v>
       </c>
@@ -2954,7 +2950,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="13">
         <v>2</v>
       </c>
@@ -2965,7 +2961,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="13">
         <v>3</v>
       </c>
@@ -2976,7 +2972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="13">
         <v>4</v>
       </c>
@@ -2987,14 +2983,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="68" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="B114" s="68"/>
-      <c r="C114" s="68"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="64"/>
+      <c r="C114" s="64"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="11" t="s">
         <v>13</v>
       </c>
@@ -3005,7 +3001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="13">
         <v>1</v>
       </c>
@@ -3016,7 +3012,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="13">
         <v>2</v>
       </c>
@@ -3027,7 +3023,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="13">
         <v>3</v>
       </c>
@@ -3038,7 +3034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="13">
         <v>4</v>
       </c>
@@ -3049,7 +3045,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="13">
         <v>5</v>
       </c>
@@ -3060,7 +3056,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="13">
         <v>6</v>
       </c>
@@ -3071,7 +3067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="13">
         <v>7</v>
       </c>
@@ -3082,19 +3078,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="16"/>
       <c r="B123" s="17"/>
       <c r="C123" s="18"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="68" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="B124" s="68"/>
-      <c r="C124" s="68"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="64"/>
+      <c r="C124" s="64"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="13" t="s">
         <v>13</v>
       </c>
@@ -3105,7 +3101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="13">
         <v>1</v>
       </c>
@@ -3116,7 +3112,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="13">
         <v>2</v>
       </c>
@@ -3127,7 +3123,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="13">
         <v>3</v>
       </c>
@@ -3138,7 +3134,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="13">
         <v>4</v>
       </c>
@@ -3149,7 +3145,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="13">
         <v>5</v>
       </c>
@@ -3160,19 +3156,19 @@
         <v>397</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="16"/>
       <c r="B131" s="17"/>
       <c r="C131" s="18"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="68" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="B132" s="68"/>
-      <c r="C132" s="68"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="13" t="s">
         <v>13</v>
       </c>
@@ -3183,7 +3179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="13">
         <v>1</v>
       </c>
@@ -3194,7 +3190,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="13">
         <v>2</v>
       </c>
@@ -3205,7 +3201,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="13">
         <v>3</v>
       </c>
@@ -3216,7 +3212,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="13">
         <v>4</v>
       </c>
@@ -3227,7 +3223,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="13">
         <v>5</v>
       </c>
@@ -3238,19 +3234,19 @@
         <v>397</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="16"/>
       <c r="B139" s="17"/>
       <c r="C139" s="18"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="69" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="B140" s="69"/>
-      <c r="C140" s="69"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="66"/>
+      <c r="C140" s="66"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="24" t="s">
         <v>13</v>
       </c>
@@ -3261,7 +3257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="24">
         <v>1</v>
       </c>
@@ -3272,7 +3268,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="24">
         <v>2</v>
       </c>
@@ -3283,7 +3279,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="24">
         <v>3</v>
       </c>
@@ -3294,7 +3290,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="24">
         <v>4</v>
       </c>
@@ -3305,24 +3301,24 @@
         <v>397</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="16"/>
       <c r="B146" s="17"/>
       <c r="C146" s="18"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="16"/>
       <c r="B147" s="17"/>
       <c r="C147" s="18"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="72" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="B148" s="72"/>
-      <c r="C148" s="72"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="68"/>
+      <c r="C148" s="68"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="25" t="s">
         <v>13</v>
       </c>
@@ -3333,7 +3329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>1</v>
       </c>
@@ -3344,7 +3340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>2</v>
       </c>
@@ -3355,7 +3351,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>3</v>
       </c>
@@ -3366,7 +3362,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>4</v>
       </c>
@@ -3377,7 +3373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>5</v>
       </c>
@@ -3388,24 +3384,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="16"/>
       <c r="B155" s="17"/>
       <c r="C155" s="18"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="16"/>
       <c r="B156" s="17"/>
       <c r="C156" s="18"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="72" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="B157" s="72"/>
-      <c r="C157" s="72"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="68"/>
+      <c r="C157" s="68"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="25" t="s">
         <v>13</v>
       </c>
@@ -3416,7 +3412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>1</v>
       </c>
@@ -3427,7 +3423,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>2</v>
       </c>
@@ -3438,7 +3434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>3</v>
       </c>
@@ -3449,7 +3445,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>4</v>
       </c>
@@ -3460,7 +3456,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>5</v>
       </c>
@@ -3471,24 +3467,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="16"/>
       <c r="B164" s="17"/>
       <c r="C164" s="18"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="16"/>
       <c r="B165" s="17"/>
       <c r="C165" s="18"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="68" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="B166" s="68"/>
-      <c r="C166" s="68"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="64"/>
+      <c r="C166" s="64"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="13" t="s">
         <v>13</v>
       </c>
@@ -3499,7 +3495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="13">
         <v>1</v>
       </c>
@@ -3510,7 +3506,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="13">
         <v>2</v>
       </c>
@@ -3521,7 +3517,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="13">
         <v>4</v>
       </c>
@@ -3532,7 +3528,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="13">
         <v>5</v>
       </c>
@@ -3543,7 +3539,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="13">
         <v>6</v>
       </c>
@@ -3554,24 +3550,24 @@
         <v>397</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="16"/>
       <c r="B173" s="17"/>
       <c r="C173" s="18"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="16"/>
       <c r="B174" s="17"/>
       <c r="C174" s="18"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="68" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="B175" s="68"/>
-      <c r="C175" s="68"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="64"/>
+      <c r="C175" s="64"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="13" t="s">
         <v>13</v>
       </c>
@@ -3582,7 +3578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="13">
         <v>1</v>
       </c>
@@ -3593,7 +3589,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="13">
         <v>2</v>
       </c>
@@ -3604,7 +3600,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="13">
         <v>3</v>
       </c>
@@ -3615,7 +3611,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="13">
         <v>4</v>
       </c>
@@ -3626,7 +3622,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="13">
         <v>5</v>
       </c>
@@ -3637,7 +3633,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="13">
         <v>6</v>
       </c>
@@ -3648,7 +3644,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="13">
         <v>7</v>
       </c>
@@ -3659,7 +3655,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="13">
         <v>8</v>
       </c>
@@ -3670,140 +3666,140 @@
         <v>397</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="28"/>
-      <c r="B185" s="29"/>
-      <c r="C185" s="30"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="28"/>
-      <c r="B186" s="29"/>
-      <c r="C186" s="30"/>
-    </row>
-    <row r="187" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="73" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="16"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="18"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="16"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="18"/>
+    </row>
+    <row r="187" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A187" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B187" s="74"/>
-      <c r="C187" s="75"/>
-    </row>
-    <row r="188" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="31" t="s">
+      <c r="B187" s="70"/>
+      <c r="C187" s="71"/>
+    </row>
+    <row r="188" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A188" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B188" s="32" t="s">
+      <c r="B188" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C188" s="31" t="s">
+      <c r="C188" s="28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="31">
+    <row r="189" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="28">
         <v>1</v>
       </c>
-      <c r="B189" s="32" t="s">
+      <c r="B189" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="C189" s="31" t="s">
+      <c r="C189" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="31">
+    <row r="190" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A190" s="28">
         <v>2</v>
       </c>
-      <c r="B190" s="32" t="s">
+      <c r="B190" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C190" s="31" t="s">
+      <c r="C190" s="28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="31">
+    <row r="191" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A191" s="28">
         <v>3</v>
       </c>
-      <c r="B191" s="32" t="s">
+      <c r="B191" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C191" s="31" t="s">
+      <c r="C191" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="31">
+    <row r="192" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A192" s="28">
         <v>4</v>
       </c>
-      <c r="B192" s="32" t="s">
+      <c r="B192" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C192" s="31" t="s">
+      <c r="C192" s="28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="31">
+    <row r="193" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A193" s="28">
         <v>5</v>
       </c>
-      <c r="B193" s="32" t="s">
+      <c r="B193" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C193" s="31" t="s">
+      <c r="C193" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="31">
+    <row r="194" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A194" s="28">
         <v>6</v>
       </c>
-      <c r="B194" s="32" t="s">
+      <c r="B194" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C194" s="31" t="s">
+      <c r="C194" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="31">
+    <row r="195" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A195" s="28">
         <v>7</v>
       </c>
-      <c r="B195" s="32" t="s">
+      <c r="B195" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="C195" s="31" t="s">
+      <c r="C195" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="31">
+    <row r="196" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A196" s="28">
         <v>8</v>
       </c>
-      <c r="B196" s="32" t="s">
+      <c r="B196" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C196" s="31" t="s">
+      <c r="C196" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="16"/>
       <c r="B197" s="17"/>
       <c r="C197" s="18"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="16"/>
       <c r="B198" s="17"/>
       <c r="C198" s="18"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="67" t="s">
         <v>121</v>
       </c>
       <c r="B199" s="67"/>
       <c r="C199" s="67"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="25" t="s">
         <v>13</v>
       </c>
@@ -3814,7 +3810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>1</v>
       </c>
@@ -3825,7 +3821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>2</v>
       </c>
@@ -3836,7 +3832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>3</v>
       </c>
@@ -3847,7 +3843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>4</v>
       </c>
@@ -3858,7 +3854,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>5</v>
       </c>
@@ -3869,7 +3865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>6</v>
       </c>
@@ -3880,7 +3876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>7</v>
       </c>
@@ -3891,112 +3887,112 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="16"/>
       <c r="B208" s="17"/>
       <c r="C208" s="18"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="16"/>
       <c r="B209" s="17"/>
       <c r="C209" s="18"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="67" t="s">
         <v>126</v>
       </c>
       <c r="B210" s="67"/>
       <c r="C210" s="67"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B211" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C211" s="33" t="s">
+      <c r="C211" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>1</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C212" s="34" t="s">
+      <c r="C212" s="31" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>2</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C213" s="34" t="s">
+      <c r="C213" s="31" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>3</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C214" s="34" t="s">
+      <c r="C214" s="31" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>4</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C215" s="34" t="s">
+      <c r="C215" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>5</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C216" s="34" t="s">
+      <c r="C216" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>6</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C217" s="34" t="s">
+      <c r="C217" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>7</v>
       </c>
-      <c r="B218" s="35" t="s">
+      <c r="B218" s="32" t="s">
         <v>432</v>
       </c>
-      <c r="C218" s="34" t="s">
+      <c r="C218" s="31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>8</v>
       </c>
@@ -4007,24 +4003,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="16"/>
       <c r="B220" s="17"/>
       <c r="C220" s="18"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="16"/>
       <c r="B221" s="17"/>
       <c r="C221" s="18"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="68" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="B222" s="68"/>
-      <c r="C222" s="68"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B222" s="64"/>
+      <c r="C222" s="64"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="13" t="s">
         <v>13</v>
       </c>
@@ -4035,7 +4031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="13">
         <v>1</v>
       </c>
@@ -4046,7 +4042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="13">
         <v>2</v>
       </c>
@@ -4057,7 +4053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="13">
         <v>3</v>
       </c>
@@ -4068,7 +4064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="13">
         <v>4</v>
       </c>
@@ -4079,7 +4075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="13">
         <v>5</v>
       </c>
@@ -4090,24 +4086,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="16"/>
       <c r="B229" s="17"/>
       <c r="C229" s="18"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="16"/>
       <c r="B230" s="17"/>
       <c r="C230" s="18"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="68" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="B231" s="68"/>
-      <c r="C231" s="68"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="64"/>
+      <c r="C231" s="64"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="13" t="s">
         <v>13</v>
       </c>
@@ -4118,7 +4114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="13">
         <v>1</v>
       </c>
@@ -4129,7 +4125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="13">
         <v>2</v>
       </c>
@@ -4140,7 +4136,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="13">
         <v>3</v>
       </c>
@@ -4151,7 +4147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="13">
         <v>4</v>
       </c>
@@ -4162,7 +4158,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="13">
         <v>5</v>
       </c>
@@ -4173,19 +4169,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="16"/>
       <c r="B238" s="17"/>
       <c r="C238" s="18"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="68" t="s">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="B240" s="68"/>
-      <c r="C240" s="68"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B240" s="64"/>
+      <c r="C240" s="64"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="13" t="s">
         <v>13</v>
       </c>
@@ -4196,7 +4192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="13">
         <v>1</v>
       </c>
@@ -4207,7 +4203,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="13">
         <v>2</v>
       </c>
@@ -4218,7 +4214,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="13">
         <v>3</v>
       </c>
@@ -4229,7 +4225,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="13">
         <v>4</v>
       </c>
@@ -4240,7 +4236,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="13">
         <v>5</v>
       </c>
@@ -4251,29 +4247,29 @@
         <v>397</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="16"/>
       <c r="B247" s="17"/>
       <c r="C247" s="18"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="16"/>
       <c r="B248" s="17"/>
       <c r="C248" s="18"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="16"/>
       <c r="B249" s="17"/>
       <c r="C249" s="18"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="68" t="s">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="B250" s="68"/>
-      <c r="C250" s="68"/>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B250" s="64"/>
+      <c r="C250" s="64"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="13" t="s">
         <v>13</v>
       </c>
@@ -4284,7 +4280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="13">
         <v>1</v>
       </c>
@@ -4295,7 +4291,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="13">
         <v>2</v>
       </c>
@@ -4306,7 +4302,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="13">
         <v>3</v>
       </c>
@@ -4317,7 +4313,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="13">
         <v>4</v>
       </c>
@@ -4328,7 +4324,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="13">
         <v>5</v>
       </c>
@@ -4339,19 +4335,19 @@
         <v>397</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="16"/>
       <c r="B257" s="17"/>
       <c r="C257" s="18"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="68" t="s">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B259" s="68"/>
-      <c r="C259" s="68"/>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B259" s="64"/>
+      <c r="C259" s="64"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="13" t="s">
         <v>13</v>
       </c>
@@ -4362,7 +4358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="13">
         <v>1</v>
       </c>
@@ -4373,7 +4369,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="13">
         <v>2</v>
       </c>
@@ -4384,7 +4380,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="13">
         <v>3</v>
       </c>
@@ -4395,7 +4391,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="13">
         <v>4</v>
       </c>
@@ -4406,7 +4402,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="13">
         <v>5</v>
       </c>
@@ -4417,24 +4413,24 @@
         <v>397</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="16"/>
       <c r="B266" s="17"/>
       <c r="C266" s="18"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="16"/>
       <c r="B267" s="17"/>
       <c r="C267" s="18"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="68" t="s">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="B268" s="68"/>
-      <c r="C268" s="68"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B268" s="64"/>
+      <c r="C268" s="64"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="13" t="s">
         <v>13</v>
       </c>
@@ -4445,7 +4441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="13">
         <v>1</v>
       </c>
@@ -4456,7 +4452,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="13">
         <v>2</v>
       </c>
@@ -4467,7 +4463,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="13">
         <v>3</v>
       </c>
@@ -4478,7 +4474,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="13">
         <v>4</v>
       </c>
@@ -4489,24 +4485,24 @@
         <v>397</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="16"/>
       <c r="B274" s="17"/>
       <c r="C274" s="18"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="16"/>
       <c r="B275" s="17"/>
       <c r="C275" s="18"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="68" t="s">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="B276" s="68"/>
-      <c r="C276" s="68"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B276" s="64"/>
+      <c r="C276" s="64"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="13" t="s">
         <v>13</v>
       </c>
@@ -4517,7 +4513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="13">
         <v>1</v>
       </c>
@@ -4528,7 +4524,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="13">
         <v>2</v>
       </c>
@@ -4539,7 +4535,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="13">
         <v>3</v>
       </c>
@@ -4550,7 +4546,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="13">
         <v>4</v>
       </c>
@@ -4561,29 +4557,29 @@
         <v>397</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="16"/>
       <c r="B282" s="17"/>
       <c r="C282" s="18"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="16"/>
       <c r="B283" s="17"/>
       <c r="C283" s="18"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="16"/>
       <c r="B284" s="17"/>
       <c r="C284" s="18"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="68" t="s">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="B285" s="68"/>
-      <c r="C285" s="68"/>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B285" s="64"/>
+      <c r="C285" s="64"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="13" t="s">
         <v>13</v>
       </c>
@@ -4594,62 +4590,62 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="13">
         <v>1</v>
       </c>
-      <c r="B287" s="36" t="s">
+      <c r="B287" s="33" t="s">
         <v>162</v>
       </c>
       <c r="C287" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="13">
         <v>2</v>
       </c>
-      <c r="B288" s="36" t="s">
+      <c r="B288" s="33" t="s">
         <v>164</v>
       </c>
       <c r="C288" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="13">
         <v>3</v>
       </c>
-      <c r="B289" s="36" t="s">
+      <c r="B289" s="33" t="s">
         <v>165</v>
       </c>
       <c r="C289" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="13">
         <v>4</v>
       </c>
-      <c r="B290" s="36" t="s">
+      <c r="B290" s="33" t="s">
         <v>166</v>
       </c>
       <c r="C290" s="20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="13">
         <v>5</v>
       </c>
-      <c r="B291" s="36" t="s">
+      <c r="B291" s="33" t="s">
         <v>168</v>
       </c>
       <c r="C291" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="13">
         <v>6</v>
       </c>
@@ -4660,7 +4656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="13">
         <v>7</v>
       </c>
@@ -4671,7 +4667,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="13">
         <v>8</v>
       </c>
@@ -4682,29 +4678,29 @@
         <v>39</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="16"/>
       <c r="B295" s="17"/>
       <c r="C295" s="18"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="16"/>
       <c r="B296" s="17"/>
       <c r="C296" s="18"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="16"/>
       <c r="B297" s="17"/>
       <c r="C297" s="18"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="68" t="s">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="B298" s="68"/>
-      <c r="C298" s="68"/>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B298" s="64"/>
+      <c r="C298" s="64"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="13" t="s">
         <v>13</v>
       </c>
@@ -4715,7 +4711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="13">
         <v>1</v>
       </c>
@@ -4726,7 +4722,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="13">
         <v>2</v>
       </c>
@@ -4737,7 +4733,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="13">
         <v>3</v>
       </c>
@@ -4748,7 +4744,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="13">
         <v>4</v>
       </c>
@@ -4759,7 +4755,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="13">
         <v>5</v>
       </c>
@@ -4770,7 +4766,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="13">
         <v>6</v>
       </c>
@@ -4781,19 +4777,19 @@
         <v>397</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="16"/>
       <c r="B306" s="17"/>
       <c r="C306" s="18"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="68" t="s">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="B307" s="68"/>
-      <c r="C307" s="68"/>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B307" s="64"/>
+      <c r="C307" s="64"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="13" t="s">
         <v>13</v>
       </c>
@@ -4804,7 +4800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="13">
         <v>1</v>
       </c>
@@ -4815,7 +4811,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="13">
         <v>2</v>
       </c>
@@ -4826,7 +4822,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="13">
         <v>3</v>
       </c>
@@ -4837,7 +4833,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="13">
         <v>4</v>
       </c>
@@ -4848,7 +4844,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="13">
         <v>5</v>
       </c>
@@ -4859,7 +4855,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="13">
         <v>6</v>
       </c>
@@ -4870,7 +4866,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="13">
         <v>7</v>
       </c>
@@ -4881,7 +4877,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="13">
         <v>8</v>
       </c>
@@ -4892,7 +4888,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="13">
         <v>9</v>
       </c>
@@ -4903,8 +4899,8 @@
         <v>414</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="37">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="34">
         <v>10</v>
       </c>
       <c r="B318" s="14" t="s">
@@ -4914,19 +4910,19 @@
         <v>417</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="16"/>
       <c r="B319" s="17"/>
       <c r="C319" s="18"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="68" t="s">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="B320" s="68"/>
-      <c r="C320" s="68"/>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B320" s="64"/>
+      <c r="C320" s="64"/>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="13" t="s">
         <v>13</v>
       </c>
@@ -4937,7 +4933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="13">
         <v>1</v>
       </c>
@@ -4948,7 +4944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="13">
         <v>2</v>
       </c>
@@ -4959,7 +4955,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="13">
         <v>3</v>
       </c>
@@ -4970,7 +4966,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="13">
         <v>4</v>
       </c>
@@ -4981,7 +4977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="13">
         <v>5</v>
       </c>
@@ -4992,7 +4988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="13">
         <v>6</v>
       </c>
@@ -5003,19 +4999,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="28"/>
-      <c r="B328" s="29"/>
-      <c r="C328" s="30"/>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="16"/>
+      <c r="B328" s="17"/>
+      <c r="C328" s="18"/>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="67" t="s">
         <v>190</v>
       </c>
       <c r="B329" s="67"/>
       <c r="C329" s="67"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="25" t="s">
         <v>13</v>
       </c>
@@ -5026,7 +5022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>1</v>
       </c>
@@ -5037,7 +5033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>2</v>
       </c>
@@ -5048,18 +5044,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>3</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C333" s="39" t="s">
+      <c r="C333" s="36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>4</v>
       </c>
@@ -5070,7 +5066,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>5</v>
       </c>
@@ -5081,7 +5077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>6</v>
       </c>
@@ -5092,24 +5088,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="28"/>
-      <c r="B337" s="29"/>
-      <c r="C337" s="30"/>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="28"/>
-      <c r="B338" s="29"/>
-      <c r="C338" s="30"/>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" s="16"/>
+      <c r="B337" s="17"/>
+      <c r="C337" s="18"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" s="16"/>
+      <c r="B338" s="17"/>
+      <c r="C338" s="18"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="67" t="s">
         <v>195</v>
       </c>
       <c r="B339" s="67"/>
       <c r="C339" s="67"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="25" t="s">
         <v>13</v>
       </c>
@@ -5120,7 +5116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>1</v>
       </c>
@@ -5131,7 +5127,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>2</v>
       </c>
@@ -5142,7 +5138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>3</v>
       </c>
@@ -5153,7 +5149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>4</v>
       </c>
@@ -5164,7 +5160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>5</v>
       </c>
@@ -5175,7 +5171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>6</v>
       </c>
@@ -5186,7 +5182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>7</v>
       </c>
@@ -5197,7 +5193,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>8</v>
       </c>
@@ -5208,7 +5204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>9</v>
       </c>
@@ -5219,7 +5215,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>10</v>
       </c>
@@ -5230,19 +5226,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="7"/>
       <c r="B351" s="8"/>
       <c r="C351" s="9"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="67" t="s">
         <v>204</v>
       </c>
       <c r="B352" s="67"/>
       <c r="C352" s="67"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="25" t="s">
         <v>13</v>
       </c>
@@ -5253,7 +5249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>1</v>
       </c>
@@ -5264,7 +5260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>2</v>
       </c>
@@ -5275,7 +5271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>3</v>
       </c>
@@ -5286,7 +5282,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>4</v>
       </c>
@@ -5297,7 +5293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>5</v>
       </c>
@@ -5308,24 +5304,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="7"/>
       <c r="B359" s="8"/>
       <c r="C359" s="9"/>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="28"/>
-      <c r="B360" s="29"/>
-      <c r="C360" s="30"/>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" s="16"/>
+      <c r="B360" s="17"/>
+      <c r="C360" s="18"/>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="67" t="s">
         <v>208</v>
       </c>
       <c r="B361" s="67"/>
       <c r="C361" s="67"/>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="25" t="s">
         <v>13</v>
       </c>
@@ -5336,7 +5332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>1</v>
       </c>
@@ -5347,7 +5343,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>2</v>
       </c>
@@ -5358,7 +5354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>3</v>
       </c>
@@ -5369,7 +5365,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>4</v>
       </c>
@@ -5380,7 +5376,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>5</v>
       </c>
@@ -5391,7 +5387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>6</v>
       </c>
@@ -5402,24 +5398,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="28"/>
-      <c r="B369" s="29"/>
-      <c r="C369" s="30"/>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="28"/>
-      <c r="B370" s="29"/>
-      <c r="C370" s="30"/>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" s="16"/>
+      <c r="B369" s="17"/>
+      <c r="C369" s="18"/>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="16"/>
+      <c r="B370" s="17"/>
+      <c r="C370" s="18"/>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="67" t="s">
         <v>213</v>
       </c>
       <c r="B371" s="67"/>
       <c r="C371" s="67"/>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="25" t="s">
         <v>13</v>
       </c>
@@ -5430,7 +5426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>1</v>
       </c>
@@ -5441,7 +5437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>2</v>
       </c>
@@ -5452,7 +5448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>3</v>
       </c>
@@ -5463,7 +5459,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>4</v>
       </c>
@@ -5474,7 +5470,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>5</v>
       </c>
@@ -5485,7 +5481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>6</v>
       </c>
@@ -5496,29 +5492,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="28"/>
-      <c r="B379" s="29"/>
-      <c r="C379" s="30"/>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="28"/>
-      <c r="B380" s="29"/>
-      <c r="C380" s="30"/>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="28"/>
-      <c r="B381" s="29"/>
-      <c r="C381" s="30"/>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="16"/>
+      <c r="B379" s="17"/>
+      <c r="C379" s="18"/>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="16"/>
+      <c r="B380" s="17"/>
+      <c r="C380" s="18"/>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="16"/>
+      <c r="B381" s="17"/>
+      <c r="C381" s="18"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="67" t="s">
         <v>433</v>
       </c>
       <c r="B382" s="67"/>
       <c r="C382" s="67"/>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="25" t="s">
         <v>13</v>
       </c>
@@ -5529,7 +5525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>1</v>
       </c>
@@ -5540,7 +5536,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>2</v>
       </c>
@@ -5551,7 +5547,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>3</v>
       </c>
@@ -5562,7 +5558,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>4</v>
       </c>
@@ -5573,7 +5569,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>5</v>
       </c>
@@ -5584,7 +5580,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>6</v>
       </c>
@@ -5595,44 +5591,44 @@
         <v>25</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="28"/>
-      <c r="B390" s="29"/>
-      <c r="C390" s="30"/>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="28"/>
-      <c r="B391" s="29"/>
-      <c r="C391" s="30"/>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="28"/>
-      <c r="B392" s="29"/>
-      <c r="C392" s="30"/>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="28"/>
-      <c r="B393" s="29"/>
-      <c r="C393" s="30"/>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="28"/>
-      <c r="B394" s="29"/>
-      <c r="C394" s="30"/>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" s="16"/>
+      <c r="B390" s="17"/>
+      <c r="C390" s="18"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" s="16"/>
+      <c r="B391" s="17"/>
+      <c r="C391" s="18"/>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" s="16"/>
+      <c r="B392" s="17"/>
+      <c r="C392" s="18"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" s="16"/>
+      <c r="B393" s="17"/>
+      <c r="C393" s="18"/>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" s="16"/>
+      <c r="B394" s="17"/>
+      <c r="C394" s="18"/>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="16"/>
       <c r="B395" s="17"/>
       <c r="C395" s="18"/>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="68" t="s">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="B396" s="68"/>
-      <c r="C396" s="68"/>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B396" s="64"/>
+      <c r="C396" s="64"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="13" t="s">
         <v>13</v>
       </c>
@@ -5643,40 +5639,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="13">
         <v>1</v>
       </c>
-      <c r="B398" s="36" t="s">
+      <c r="B398" s="33" t="s">
         <v>221</v>
       </c>
       <c r="C398" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="13">
         <v>2</v>
       </c>
-      <c r="B399" s="36" t="s">
+      <c r="B399" s="33" t="s">
         <v>222</v>
       </c>
       <c r="C399" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="13">
         <v>3</v>
       </c>
-      <c r="B400" s="36" t="s">
+      <c r="B400" s="33" t="s">
         <v>223</v>
       </c>
       <c r="C400" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="13">
         <v>4</v>
       </c>
@@ -5687,7 +5683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="13">
         <v>5</v>
       </c>
@@ -5698,7 +5694,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="13">
         <v>6</v>
       </c>
@@ -5709,7 +5705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="13">
         <v>7</v>
       </c>
@@ -5720,19 +5716,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="16"/>
       <c r="B405" s="17"/>
       <c r="C405" s="18"/>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="68" t="s">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="B407" s="68"/>
-      <c r="C407" s="68"/>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B407" s="64"/>
+      <c r="C407" s="64"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="13" t="s">
         <v>13</v>
       </c>
@@ -5743,18 +5739,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="13">
         <v>1</v>
       </c>
-      <c r="B409" s="36" t="s">
+      <c r="B409" s="33" t="s">
         <v>227</v>
       </c>
       <c r="C409" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="13">
         <v>2</v>
       </c>
@@ -5765,7 +5761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="13">
         <v>3</v>
       </c>
@@ -5776,7 +5772,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="13">
         <v>4</v>
       </c>
@@ -5787,7 +5783,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="13">
         <v>5</v>
       </c>
@@ -5798,24 +5794,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="28"/>
-      <c r="B414" s="29"/>
-      <c r="C414" s="30"/>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="28"/>
-      <c r="B415" s="29"/>
-      <c r="C415" s="30"/>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" s="16"/>
+      <c r="B414" s="17"/>
+      <c r="C414" s="18"/>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" s="16"/>
+      <c r="B415" s="17"/>
+      <c r="C415" s="18"/>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="67" t="s">
         <v>230</v>
       </c>
       <c r="B416" s="67"/>
       <c r="C416" s="67"/>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="25" t="s">
         <v>13</v>
       </c>
@@ -5826,7 +5822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>1</v>
       </c>
@@ -5837,7 +5833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>2</v>
       </c>
@@ -5848,7 +5844,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>3</v>
       </c>
@@ -5859,7 +5855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>4</v>
       </c>
@@ -5870,7 +5866,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>5</v>
       </c>
@@ -5881,7 +5877,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>6</v>
       </c>
@@ -5892,7 +5888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>7</v>
       </c>
@@ -5903,7 +5899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>8</v>
       </c>
@@ -5914,24 +5910,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="7"/>
       <c r="B426" s="8"/>
       <c r="C426" s="9"/>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="7"/>
       <c r="B427" s="8"/>
       <c r="C427" s="9"/>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="67" t="s">
         <v>434</v>
       </c>
       <c r="B428" s="67"/>
       <c r="C428" s="67"/>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="25" t="s">
         <v>13</v>
       </c>
@@ -5942,7 +5938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>1</v>
       </c>
@@ -5953,7 +5949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>2</v>
       </c>
@@ -5964,7 +5960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>3</v>
       </c>
@@ -5975,7 +5971,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>4</v>
       </c>
@@ -5986,7 +5982,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>5</v>
       </c>
@@ -5997,7 +5993,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>6</v>
       </c>
@@ -6008,19 +6004,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436" s="28"/>
-      <c r="B436" s="29"/>
-      <c r="C436" s="30"/>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="68" t="s">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="16"/>
+      <c r="B436" s="17"/>
+      <c r="C436" s="18"/>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="B438" s="68"/>
-      <c r="C438" s="68"/>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B438" s="64"/>
+      <c r="C438" s="64"/>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="13" t="s">
         <v>13</v>
       </c>
@@ -6031,29 +6027,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="11">
         <v>1</v>
       </c>
-      <c r="B440" s="36" t="s">
+      <c r="B440" s="33" t="s">
         <v>238</v>
       </c>
       <c r="C440" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="13">
         <v>2</v>
       </c>
-      <c r="B441" s="36" t="s">
+      <c r="B441" s="33" t="s">
         <v>239</v>
       </c>
       <c r="C441" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="13">
         <v>3</v>
       </c>
@@ -6064,7 +6060,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="13">
         <v>4</v>
       </c>
@@ -6075,7 +6071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="13">
         <v>5</v>
       </c>
@@ -6086,24 +6082,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="16"/>
       <c r="B445" s="17"/>
       <c r="C445" s="18"/>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="16"/>
       <c r="B446" s="17"/>
       <c r="C446" s="18"/>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447" s="68" t="s">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="B447" s="68"/>
-      <c r="C447" s="68"/>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B447" s="64"/>
+      <c r="C447" s="64"/>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="13" t="s">
         <v>13</v>
       </c>
@@ -6114,7 +6110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="13">
         <v>1</v>
       </c>
@@ -6125,7 +6121,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="13">
         <v>2</v>
       </c>
@@ -6136,7 +6132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="13">
         <v>3</v>
       </c>
@@ -6147,7 +6143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="13">
         <v>4</v>
       </c>
@@ -6158,7 +6154,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="13">
         <v>5</v>
       </c>
@@ -6169,7 +6165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="13">
         <v>6</v>
       </c>
@@ -6180,52 +6176,52 @@
         <v>39</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="16"/>
       <c r="B455" s="17"/>
       <c r="C455" s="18"/>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456" s="68" t="s">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="B456" s="68"/>
-      <c r="C456" s="68"/>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B456" s="64"/>
+      <c r="C456" s="64"/>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B457" s="36" t="s">
+      <c r="B457" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C457" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="13">
         <v>1</v>
       </c>
-      <c r="B458" s="36" t="s">
+      <c r="B458" s="33" t="s">
         <v>249</v>
       </c>
       <c r="C458" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="13">
         <v>2</v>
       </c>
-      <c r="B459" s="36" t="s">
+      <c r="B459" s="33" t="s">
         <v>250</v>
       </c>
       <c r="C459" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="13">
         <v>3</v>
       </c>
@@ -6236,7 +6232,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="13">
         <v>4</v>
       </c>
@@ -6247,7 +6243,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="13">
         <v>5</v>
       </c>
@@ -6258,7 +6254,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="13">
         <v>6</v>
       </c>
@@ -6269,7 +6265,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="13">
         <v>7</v>
       </c>
@@ -6280,7 +6276,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="13">
         <v>8</v>
       </c>
@@ -6291,7 +6287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="13">
         <v>9</v>
       </c>
@@ -6302,7 +6298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="13">
         <v>10</v>
       </c>
@@ -6313,7 +6309,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="13">
         <v>11</v>
       </c>
@@ -6324,7 +6320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="13">
         <v>12</v>
       </c>
@@ -6335,19 +6331,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="16"/>
       <c r="B470" s="17"/>
       <c r="C470" s="18"/>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471" s="68" t="s">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="B471" s="68"/>
-      <c r="C471" s="68"/>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B471" s="64"/>
+      <c r="C471" s="64"/>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="13" t="s">
         <v>13</v>
       </c>
@@ -6358,7 +6354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="13">
         <v>1</v>
       </c>
@@ -6369,7 +6365,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="13">
         <v>2</v>
       </c>
@@ -6380,7 +6376,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="13">
         <v>3</v>
       </c>
@@ -6391,7 +6387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="13">
         <v>4</v>
       </c>
@@ -6402,7 +6398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="13">
         <v>5</v>
       </c>
@@ -6413,7 +6409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="13">
         <v>6</v>
       </c>
@@ -6424,19 +6420,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479" s="28"/>
-      <c r="B479" s="29"/>
-      <c r="C479" s="30"/>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" s="16"/>
+      <c r="B479" s="17"/>
+      <c r="C479" s="18"/>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="67" t="s">
         <v>265</v>
       </c>
       <c r="B480" s="67"/>
       <c r="C480" s="67"/>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="25" t="s">
         <v>13</v>
       </c>
@@ -6447,7 +6443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>1</v>
       </c>
@@ -6458,7 +6454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>2</v>
       </c>
@@ -6469,7 +6465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>3</v>
       </c>
@@ -6480,7 +6476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>4</v>
       </c>
@@ -6491,7 +6487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>5</v>
       </c>
@@ -6502,7 +6498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>6</v>
       </c>
@@ -6513,24 +6509,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A488" s="28"/>
-      <c r="B488" s="29"/>
-      <c r="C488" s="30"/>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A489" s="28"/>
-      <c r="B489" s="29"/>
-      <c r="C489" s="30"/>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" s="16"/>
+      <c r="B488" s="17"/>
+      <c r="C488" s="18"/>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" s="16"/>
+      <c r="B489" s="17"/>
+      <c r="C489" s="18"/>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="67" t="s">
         <v>435</v>
       </c>
       <c r="B490" s="67"/>
       <c r="C490" s="67"/>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="25" t="s">
         <v>13</v>
       </c>
@@ -6541,7 +6537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>1</v>
       </c>
@@ -6552,7 +6548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>2</v>
       </c>
@@ -6563,7 +6559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>3</v>
       </c>
@@ -6574,7 +6570,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>4</v>
       </c>
@@ -6585,7 +6581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>5</v>
       </c>
@@ -6596,29 +6592,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497" s="28"/>
-      <c r="B497" s="29"/>
-      <c r="C497" s="30"/>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A498" s="28"/>
-      <c r="B498" s="29"/>
-      <c r="C498" s="30"/>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A499" s="28"/>
-      <c r="B499" s="29"/>
-      <c r="C499" s="30"/>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" s="16"/>
+      <c r="B497" s="17"/>
+      <c r="C497" s="18"/>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" s="16"/>
+      <c r="B498" s="17"/>
+      <c r="C498" s="18"/>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" s="16"/>
+      <c r="B499" s="17"/>
+      <c r="C499" s="18"/>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="67" t="s">
         <v>271</v>
       </c>
       <c r="B500" s="67"/>
       <c r="C500" s="67"/>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="25" t="s">
         <v>13</v>
       </c>
@@ -6629,7 +6625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>1</v>
       </c>
@@ -6640,7 +6636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>2</v>
       </c>
@@ -6651,7 +6647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>3</v>
       </c>
@@ -6662,7 +6658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>4</v>
       </c>
@@ -6673,7 +6669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>5</v>
       </c>
@@ -6684,7 +6680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>6</v>
       </c>
@@ -6695,7 +6691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>7</v>
       </c>
@@ -6706,24 +6702,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A509" s="28"/>
-      <c r="B509" s="29"/>
-      <c r="C509" s="30"/>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A510" s="28"/>
-      <c r="B510" s="29"/>
-      <c r="C510" s="30"/>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" s="16"/>
+      <c r="B509" s="17"/>
+      <c r="C509" s="18"/>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" s="16"/>
+      <c r="B510" s="17"/>
+      <c r="C510" s="18"/>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="67" t="s">
         <v>276</v>
       </c>
       <c r="B511" s="67"/>
       <c r="C511" s="67"/>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="25" t="s">
         <v>13</v>
       </c>
@@ -6734,7 +6730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>1</v>
       </c>
@@ -6745,7 +6741,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>2</v>
       </c>
@@ -6756,7 +6752,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>3</v>
       </c>
@@ -6767,7 +6763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>4</v>
       </c>
@@ -6778,39 +6774,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A517" s="28"/>
-      <c r="B517" s="29"/>
-      <c r="C517" s="30"/>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A518" s="28"/>
-      <c r="B518" s="29"/>
-      <c r="C518" s="30"/>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517" s="16"/>
+      <c r="B517" s="17"/>
+      <c r="C517" s="18"/>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518" s="16"/>
+      <c r="B518" s="17"/>
+      <c r="C518" s="18"/>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="16"/>
       <c r="B519" s="17"/>
       <c r="C519" s="18"/>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" s="16"/>
       <c r="B521" s="17"/>
       <c r="C521" s="18"/>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" s="16"/>
       <c r="B523" s="17"/>
       <c r="C523" s="18"/>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A524" s="68" t="s">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A524" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="B524" s="68"/>
-      <c r="C524" s="68"/>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B524" s="64"/>
+      <c r="C524" s="64"/>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" s="13" t="s">
         <v>13</v>
       </c>
@@ -6821,40 +6817,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" s="13">
         <v>1</v>
       </c>
-      <c r="B526" s="36" t="s">
+      <c r="B526" s="33" t="s">
         <v>279</v>
       </c>
       <c r="C526" s="15" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" s="13">
         <v>2</v>
       </c>
-      <c r="B527" s="36" t="s">
+      <c r="B527" s="33" t="s">
         <v>280</v>
       </c>
       <c r="C527" s="15" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" s="13">
         <v>3</v>
       </c>
-      <c r="B528" s="36" t="s">
+      <c r="B528" s="33" t="s">
         <v>281</v>
       </c>
       <c r="C528" s="15" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" s="13">
         <v>4</v>
       </c>
@@ -6865,7 +6861,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" s="13">
         <v>5</v>
       </c>
@@ -6876,19 +6872,19 @@
         <v>397</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" s="16"/>
       <c r="B531" s="17"/>
       <c r="C531" s="18"/>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A532" s="68" t="s">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="B532" s="68"/>
-      <c r="C532" s="68"/>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B532" s="64"/>
+      <c r="C532" s="64"/>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" s="13" t="s">
         <v>13</v>
       </c>
@@ -6899,7 +6895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" s="13">
         <v>1</v>
       </c>
@@ -6910,7 +6906,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" s="13">
         <v>2</v>
       </c>
@@ -6921,7 +6917,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" s="13">
         <v>3</v>
       </c>
@@ -6932,7 +6928,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" s="13">
         <v>4</v>
       </c>
@@ -6943,7 +6939,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" s="13">
         <v>5</v>
       </c>
@@ -6954,14 +6950,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A540" s="68" t="s">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A540" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="B540" s="68"/>
-      <c r="C540" s="68"/>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B540" s="64"/>
+      <c r="C540" s="64"/>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="13" t="s">
         <v>13</v>
       </c>
@@ -6972,29 +6968,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="13">
         <v>1</v>
       </c>
-      <c r="B542" s="36" t="s">
+      <c r="B542" s="33" t="s">
         <v>7</v>
       </c>
       <c r="C542" s="15" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" s="13">
         <v>2</v>
       </c>
-      <c r="B543" s="36" t="s">
+      <c r="B543" s="33" t="s">
         <v>284</v>
       </c>
       <c r="C543" s="15" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" s="13">
         <v>3</v>
       </c>
@@ -7005,7 +7001,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" s="13">
         <v>4</v>
       </c>
@@ -7016,7 +7012,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" s="13">
         <v>5</v>
       </c>
@@ -7027,7 +7023,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" s="13">
         <v>6</v>
       </c>
@@ -7038,7 +7034,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" s="13">
         <v>7</v>
       </c>
@@ -7049,7 +7045,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" s="13">
         <v>8</v>
       </c>
@@ -7060,19 +7056,19 @@
         <v>397</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" s="16"/>
       <c r="B550" s="17"/>
       <c r="C550" s="18"/>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A551" s="68" t="s">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A551" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="B551" s="68"/>
-      <c r="C551" s="68"/>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B551" s="64"/>
+      <c r="C551" s="64"/>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" s="13" t="s">
         <v>13</v>
       </c>
@@ -7083,7 +7079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" s="13">
         <v>1</v>
       </c>
@@ -7094,7 +7090,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" s="13">
         <v>2</v>
       </c>
@@ -7105,7 +7101,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" s="13">
         <v>3</v>
       </c>
@@ -7116,7 +7112,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" s="13">
         <v>4</v>
       </c>
@@ -7127,7 +7123,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" s="13">
         <v>5</v>
       </c>
@@ -7138,19 +7134,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" s="16"/>
       <c r="B558" s="17"/>
       <c r="C558" s="18"/>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A559" s="68" t="s">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A559" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="B559" s="68"/>
-      <c r="C559" s="68"/>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B559" s="64"/>
+      <c r="C559" s="64"/>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" s="13" t="s">
         <v>13</v>
       </c>
@@ -7161,7 +7157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" s="13">
         <v>1</v>
       </c>
@@ -7172,7 +7168,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" s="13">
         <v>2</v>
       </c>
@@ -7183,7 +7179,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" s="13">
         <v>3</v>
       </c>
@@ -7194,7 +7190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" s="13">
         <v>4</v>
       </c>
@@ -7205,7 +7201,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" s="13">
         <v>5</v>
       </c>
@@ -7216,24 +7212,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" s="16"/>
       <c r="B566" s="17"/>
       <c r="C566" s="18"/>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" s="16"/>
       <c r="B567" s="17"/>
       <c r="C567" s="18"/>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A568" s="68" t="s">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A568" s="64" t="s">
         <v>302</v>
       </c>
-      <c r="B568" s="68"/>
-      <c r="C568" s="68"/>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B568" s="64"/>
+      <c r="C568" s="64"/>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" s="13" t="s">
         <v>13</v>
       </c>
@@ -7244,7 +7240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" s="13">
         <v>1</v>
       </c>
@@ -7255,7 +7251,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" s="13">
         <v>2</v>
       </c>
@@ -7266,7 +7262,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" s="13">
         <v>3</v>
       </c>
@@ -7277,7 +7273,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" s="13">
         <v>4</v>
       </c>
@@ -7288,7 +7284,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" s="13">
         <v>5</v>
       </c>
@@ -7299,7 +7295,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" s="13">
         <v>6</v>
       </c>
@@ -7310,29 +7306,29 @@
         <v>397</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" s="16"/>
       <c r="B576" s="17"/>
       <c r="C576" s="18"/>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" s="16"/>
       <c r="B577" s="17"/>
       <c r="C577" s="18"/>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" s="16"/>
       <c r="B578" s="17"/>
       <c r="C578" s="18"/>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A579" s="68" t="s">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A579" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="B579" s="68"/>
-      <c r="C579" s="68"/>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B579" s="64"/>
+      <c r="C579" s="64"/>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" s="13" t="s">
         <v>13</v>
       </c>
@@ -7343,7 +7339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" s="13">
         <v>1</v>
       </c>
@@ -7354,7 +7350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" s="13">
         <v>2</v>
       </c>
@@ -7365,7 +7361,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" s="13">
         <v>3</v>
       </c>
@@ -7376,7 +7372,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" s="13">
         <v>4</v>
       </c>
@@ -7387,7 +7383,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" s="13">
         <v>5</v>
       </c>
@@ -7398,7 +7394,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" s="13">
         <v>6</v>
       </c>
@@ -7409,19 +7405,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A587" s="40"/>
-      <c r="B587" s="41"/>
-      <c r="C587" s="41"/>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A588" s="68" t="s">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A587" s="37"/>
+      <c r="B587" s="38"/>
+      <c r="C587" s="38"/>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A588" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="B588" s="68"/>
-      <c r="C588" s="68"/>
-    </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B588" s="64"/>
+      <c r="C588" s="64"/>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" s="13" t="s">
         <v>13</v>
       </c>
@@ -7432,18 +7428,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" s="13">
         <v>1</v>
       </c>
-      <c r="B590" s="42" t="s">
+      <c r="B590" s="39" t="s">
         <v>310</v>
       </c>
       <c r="C590" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" s="19">
         <v>2</v>
       </c>
@@ -7454,7 +7450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" s="19">
         <v>3</v>
       </c>
@@ -7465,73 +7461,73 @@
         <v>199</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" s="19">
         <v>4</v>
       </c>
-      <c r="B593" s="42" t="s">
+      <c r="B593" s="39" t="s">
         <v>313</v>
       </c>
       <c r="C593" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" s="19">
         <v>5</v>
       </c>
-      <c r="B594" s="42" t="s">
+      <c r="B594" s="39" t="s">
         <v>314</v>
       </c>
       <c r="C594" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" s="19">
         <v>6</v>
       </c>
-      <c r="B595" s="42" t="s">
+      <c r="B595" s="39" t="s">
         <v>315</v>
       </c>
       <c r="C595" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" s="19">
         <v>7</v>
       </c>
-      <c r="B596" s="42" t="s">
+      <c r="B596" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C596" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" s="19">
         <v>8</v>
       </c>
-      <c r="B597" s="42" t="s">
+      <c r="B597" s="39" t="s">
         <v>50</v>
       </c>
       <c r="C597" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" s="19">
         <v>9</v>
       </c>
-      <c r="B598" s="42" t="s">
+      <c r="B598" s="39" t="s">
         <v>316</v>
       </c>
       <c r="C598" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" s="19">
         <v>10</v>
       </c>
@@ -7542,7 +7538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" s="19">
         <v>11</v>
       </c>
@@ -7553,19 +7549,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A601" s="43"/>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A601" s="40"/>
       <c r="B601" s="17"/>
       <c r="C601" s="18"/>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A602" s="68" t="s">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A602" s="64" t="s">
         <v>317</v>
       </c>
-      <c r="B602" s="68"/>
-      <c r="C602" s="68"/>
-    </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B602" s="64"/>
+      <c r="C602" s="64"/>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" s="13" t="s">
         <v>13</v>
       </c>
@@ -7576,51 +7572,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" s="13">
         <v>1</v>
       </c>
-      <c r="B604" s="36" t="s">
+      <c r="B604" s="33" t="s">
         <v>318</v>
       </c>
       <c r="C604" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" s="13">
         <v>2</v>
       </c>
-      <c r="B605" s="42" t="s">
+      <c r="B605" s="39" t="s">
         <v>50</v>
       </c>
       <c r="C605" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" s="13">
         <v>3</v>
       </c>
-      <c r="B606" s="42" t="s">
+      <c r="B606" s="39" t="s">
         <v>316</v>
       </c>
       <c r="C606" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" s="13">
         <v>4</v>
       </c>
-      <c r="B607" s="42" t="s">
+      <c r="B607" s="39" t="s">
         <v>319</v>
       </c>
       <c r="C607" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" s="13">
         <v>5</v>
       </c>
@@ -7631,7 +7627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" s="19">
         <v>6</v>
       </c>
@@ -7642,14 +7638,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A611" s="68" t="s">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A611" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="B611" s="68"/>
-      <c r="C611" s="68"/>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B611" s="64"/>
+      <c r="C611" s="64"/>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" s="13" t="s">
         <v>13</v>
       </c>
@@ -7660,140 +7656,140 @@
         <v>15</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" s="13">
         <v>1</v>
       </c>
-      <c r="B613" s="44" t="s">
+      <c r="B613" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C613" s="15" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" s="13">
         <v>2</v>
       </c>
-      <c r="B614" s="44" t="s">
+      <c r="B614" s="41" t="s">
         <v>321</v>
       </c>
       <c r="C614" s="15" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" s="13">
         <v>3</v>
       </c>
-      <c r="B615" s="44" t="s">
+      <c r="B615" s="41" t="s">
         <v>322</v>
       </c>
       <c r="C615" s="15" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" s="13">
         <v>4</v>
       </c>
-      <c r="B616" s="44" t="s">
+      <c r="B616" s="41" t="s">
         <v>323</v>
       </c>
       <c r="C616" s="15" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" s="13">
         <v>5</v>
       </c>
-      <c r="B617" s="44" t="s">
+      <c r="B617" s="41" t="s">
         <v>324</v>
       </c>
       <c r="C617" s="15" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" s="13">
         <v>6</v>
       </c>
-      <c r="B618" s="44" t="s">
+      <c r="B618" s="41" t="s">
         <v>325</v>
       </c>
       <c r="C618" s="15" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" s="13">
         <v>7</v>
       </c>
-      <c r="B619" s="44" t="s">
+      <c r="B619" s="41" t="s">
         <v>326</v>
       </c>
       <c r="C619" s="15" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" s="13">
         <v>8</v>
       </c>
-      <c r="B620" s="44" t="s">
+      <c r="B620" s="41" t="s">
         <v>327</v>
       </c>
       <c r="C620" s="15" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="13">
         <v>9</v>
       </c>
-      <c r="B621" s="44" t="s">
+      <c r="B621" s="41" t="s">
         <v>170</v>
       </c>
       <c r="C621" s="15" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="13">
         <v>10</v>
       </c>
-      <c r="B622" s="44" t="s">
+      <c r="B622" s="41" t="s">
         <v>291</v>
       </c>
       <c r="C622" s="15" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A623" s="37">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A623" s="34">
         <v>11</v>
       </c>
-      <c r="B623" s="45" t="s">
+      <c r="B623" s="42" t="s">
         <v>24</v>
       </c>
       <c r="C623" s="15" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="21"/>
-      <c r="B624" s="46"/>
-      <c r="C624" s="47"/>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A625" s="68" t="s">
+      <c r="B624" s="43"/>
+      <c r="C624" s="44"/>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A625" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="B625" s="68"/>
-      <c r="C625" s="68"/>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B625" s="64"/>
+      <c r="C625" s="64"/>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="13">
         <v>1</v>
       </c>
@@ -7804,7 +7800,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="13">
         <v>2</v>
       </c>
@@ -7815,7 +7811,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="13">
         <v>3</v>
       </c>
@@ -7826,7 +7822,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="13">
         <v>4</v>
       </c>
@@ -7837,7 +7833,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="13">
         <v>5</v>
       </c>
@@ -7848,7 +7844,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="13">
         <v>6</v>
       </c>
@@ -7859,7 +7855,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="13">
         <v>7</v>
       </c>
@@ -7870,7 +7866,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="13">
         <v>8</v>
       </c>
@@ -7881,35 +7877,35 @@
         <v>396</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A634" s="37">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A634" s="34">
         <v>9</v>
       </c>
-      <c r="B634" s="38" t="s">
+      <c r="B634" s="35" t="s">
         <v>24</v>
       </c>
       <c r="C634" s="15" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="16"/>
       <c r="B635" s="17"/>
       <c r="C635" s="18"/>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="16"/>
       <c r="B636" s="17"/>
       <c r="C636" s="18"/>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A637" s="71" t="s">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A637" s="73" t="s">
         <v>336</v>
       </c>
-      <c r="B637" s="71"/>
-      <c r="C637" s="71"/>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B637" s="73"/>
+      <c r="C637" s="73"/>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="13" t="s">
         <v>13</v>
       </c>
@@ -7920,51 +7916,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="13">
         <v>1</v>
       </c>
-      <c r="B639" s="48" t="s">
+      <c r="B639" s="45" t="s">
         <v>337</v>
       </c>
       <c r="C639" s="15" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="13">
         <v>2</v>
       </c>
-      <c r="B640" s="48" t="s">
+      <c r="B640" s="45" t="s">
         <v>338</v>
       </c>
       <c r="C640" s="15" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="13">
         <v>3</v>
       </c>
-      <c r="B641" s="48" t="s">
+      <c r="B641" s="45" t="s">
         <v>339</v>
       </c>
       <c r="C641" s="15" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="13">
         <v>4</v>
       </c>
-      <c r="B642" s="48" t="s">
+      <c r="B642" s="45" t="s">
         <v>340</v>
       </c>
       <c r="C642" s="15" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="13">
         <v>5</v>
       </c>
@@ -7975,7 +7971,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="13">
         <v>6</v>
       </c>
@@ -7986,7 +7982,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="13">
         <v>7</v>
       </c>
@@ -7997,7 +7993,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" s="13">
         <v>8</v>
       </c>
@@ -8008,14 +8004,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A648" s="68" t="s">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A648" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="B648" s="68"/>
-      <c r="C648" s="68"/>
-    </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B648" s="64"/>
+      <c r="C648" s="64"/>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="13" t="s">
         <v>13</v>
       </c>
@@ -8026,7 +8022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="13">
         <v>1</v>
       </c>
@@ -8037,7 +8033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="13">
         <v>2</v>
       </c>
@@ -8048,7 +8044,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="13">
         <v>3</v>
       </c>
@@ -8059,7 +8055,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="13">
         <v>4</v>
       </c>
@@ -8070,7 +8066,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="13">
         <v>5</v>
       </c>
@@ -8081,7 +8077,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="13">
         <v>6</v>
       </c>
@@ -8092,7 +8088,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="13">
         <v>7</v>
       </c>
@@ -8103,7 +8099,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="13">
         <v>8</v>
       </c>
@@ -8114,7 +8110,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="13">
         <v>9</v>
       </c>
@@ -8125,7 +8121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="13">
         <v>10</v>
       </c>
@@ -8136,152 +8132,152 @@
         <v>25</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="16"/>
       <c r="B660" s="17"/>
       <c r="C660" s="16"/>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A661" s="70" t="s">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A661" s="72" t="s">
         <v>351</v>
       </c>
-      <c r="B661" s="70"/>
-      <c r="C661" s="70"/>
-    </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A662" s="49" t="s">
+      <c r="B661" s="72"/>
+      <c r="C661" s="72"/>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A662" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B662" s="50" t="s">
+      <c r="B662" s="47" t="s">
         <v>14</v>
       </c>
       <c r="C662" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A663" s="49">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A663" s="46">
         <v>1</v>
       </c>
-      <c r="B663" s="51" t="s">
+      <c r="B663" s="48" t="s">
         <v>352</v>
       </c>
       <c r="C663" s="15" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A664" s="49">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A664" s="46">
         <v>2</v>
       </c>
-      <c r="B664" s="51" t="s">
+      <c r="B664" s="48" t="s">
         <v>180</v>
       </c>
       <c r="C664" s="15" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A665" s="49">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A665" s="46">
         <v>3</v>
       </c>
-      <c r="B665" s="51" t="s">
+      <c r="B665" s="48" t="s">
         <v>234</v>
       </c>
       <c r="C665" s="15" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A666" s="49">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A666" s="46">
         <v>4</v>
       </c>
-      <c r="B666" s="51" t="s">
+      <c r="B666" s="48" t="s">
         <v>181</v>
       </c>
       <c r="C666" s="15" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A667" s="49">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A667" s="46">
         <v>5</v>
       </c>
-      <c r="B667" s="51" t="s">
+      <c r="B667" s="48" t="s">
         <v>182</v>
       </c>
       <c r="C667" s="15" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A668" s="49">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A668" s="46">
         <v>6</v>
       </c>
-      <c r="B668" s="51" t="s">
+      <c r="B668" s="48" t="s">
         <v>353</v>
       </c>
       <c r="C668" s="15" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A669" s="49">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A669" s="46">
         <v>7</v>
       </c>
-      <c r="B669" s="51" t="s">
+      <c r="B669" s="48" t="s">
         <v>183</v>
       </c>
       <c r="C669" s="15" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A670" s="49">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A670" s="46">
         <v>8</v>
       </c>
-      <c r="B670" s="51" t="s">
+      <c r="B670" s="48" t="s">
         <v>354</v>
       </c>
       <c r="C670" s="15" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A671" s="49">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A671" s="46">
         <v>9</v>
       </c>
-      <c r="B671" s="51" t="s">
+      <c r="B671" s="48" t="s">
         <v>170</v>
       </c>
       <c r="C671" s="15" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A672" s="49">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A672" s="46">
         <v>10</v>
       </c>
-      <c r="B672" s="51" t="s">
+      <c r="B672" s="48" t="s">
         <v>24</v>
       </c>
       <c r="C672" s="15" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="16"/>
       <c r="B673" s="17"/>
       <c r="C673" s="16"/>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A674" s="68" t="s">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A674" s="64" t="s">
         <v>355</v>
       </c>
-      <c r="B674" s="68"/>
-      <c r="C674" s="68"/>
-    </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B674" s="64"/>
+      <c r="C674" s="64"/>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="13" t="s">
         <v>13</v>
       </c>
@@ -8292,7 +8288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="13">
         <v>1</v>
       </c>
@@ -8303,7 +8299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="13">
         <v>2</v>
       </c>
@@ -8314,7 +8310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="13">
         <v>3</v>
       </c>
@@ -8325,7 +8321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="13">
         <v>4</v>
       </c>
@@ -8336,7 +8332,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="13">
         <v>5</v>
       </c>
@@ -8347,7 +8343,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="13">
         <v>6</v>
       </c>
@@ -8358,7 +8354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="13">
         <v>7</v>
       </c>
@@ -8369,19 +8365,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" s="21"/>
       <c r="B683" s="22"/>
       <c r="C683" s="21"/>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A684" s="68" t="s">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A684" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="B684" s="68"/>
-      <c r="C684" s="68"/>
-    </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B684" s="64"/>
+      <c r="C684" s="64"/>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="13" t="s">
         <v>13</v>
       </c>
@@ -8392,7 +8388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="13">
         <v>1</v>
       </c>
@@ -8403,7 +8399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="13">
         <v>2</v>
       </c>
@@ -8414,7 +8410,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" s="13">
         <v>3</v>
       </c>
@@ -8425,7 +8421,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="13">
         <v>4</v>
       </c>
@@ -8436,7 +8432,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="13">
         <v>5</v>
       </c>
@@ -8447,7 +8443,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="13">
         <v>6</v>
       </c>
@@ -8458,7 +8454,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="13">
         <v>7</v>
       </c>
@@ -8469,7 +8465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="13">
         <v>8</v>
       </c>
@@ -8480,207 +8476,207 @@
         <v>25</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="16"/>
       <c r="B694" s="17"/>
       <c r="C694" s="16"/>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" s="16"/>
       <c r="B695" s="17"/>
       <c r="C695" s="16"/>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="16"/>
       <c r="B696" s="17"/>
       <c r="C696" s="16"/>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A697" s="69" t="s">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A697" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="B697" s="69"/>
-      <c r="C697" s="69"/>
-    </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B697" s="66"/>
+      <c r="C697" s="66"/>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B698" s="52" t="s">
+      <c r="B698" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C698" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="24">
         <v>1</v>
       </c>
-      <c r="B699" s="53" t="s">
+      <c r="B699" s="50" t="s">
         <v>267</v>
       </c>
       <c r="C699" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="24">
         <v>2</v>
       </c>
-      <c r="B700" s="54" t="s">
+      <c r="B700" s="51" t="s">
         <v>363</v>
       </c>
       <c r="C700" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="24">
         <v>3</v>
       </c>
-      <c r="B701" s="54" t="s">
+      <c r="B701" s="51" t="s">
         <v>70</v>
       </c>
       <c r="C701" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="24">
         <v>4</v>
       </c>
-      <c r="B702" s="54" t="s">
+      <c r="B702" s="51" t="s">
         <v>269</v>
       </c>
       <c r="C702" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="24">
         <v>5</v>
       </c>
-      <c r="B703" s="54" t="s">
+      <c r="B703" s="51" t="s">
         <v>49</v>
       </c>
       <c r="C703" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="24">
         <v>6</v>
       </c>
-      <c r="B704" s="54" t="s">
+      <c r="B704" s="51" t="s">
         <v>364</v>
       </c>
       <c r="C704" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="24">
         <v>7</v>
       </c>
-      <c r="B705" s="54" t="s">
+      <c r="B705" s="51" t="s">
         <v>41</v>
       </c>
       <c r="C705" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="24">
         <v>8</v>
       </c>
-      <c r="B706" s="54" t="s">
+      <c r="B706" s="51" t="s">
         <v>43</v>
       </c>
       <c r="C706" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="24">
         <v>9</v>
       </c>
-      <c r="B707" s="54" t="s">
+      <c r="B707" s="51" t="s">
         <v>24</v>
       </c>
       <c r="C707" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A708" s="55"/>
-      <c r="B708" s="56"/>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A708" s="52"/>
+      <c r="B708" s="53"/>
       <c r="C708" s="16"/>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A709" s="69" t="s">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A709" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="B709" s="69"/>
-      <c r="C709" s="69"/>
-    </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B709" s="66"/>
+      <c r="C709" s="66"/>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B710" s="52" t="s">
+      <c r="B710" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C710" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="24">
         <v>1</v>
       </c>
-      <c r="B711" s="54" t="s">
+      <c r="B711" s="51" t="s">
         <v>48</v>
       </c>
       <c r="C711" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="24">
         <v>2</v>
       </c>
-      <c r="B712" s="54" t="s">
+      <c r="B712" s="51" t="s">
         <v>49</v>
       </c>
       <c r="C712" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" s="24">
         <v>3</v>
       </c>
-      <c r="B713" s="54" t="s">
+      <c r="B713" s="51" t="s">
         <v>24</v>
       </c>
       <c r="C713" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A714" s="55"/>
-      <c r="B714" s="56"/>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A714" s="52"/>
+      <c r="B714" s="53"/>
       <c r="C714" s="16"/>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A715" s="68" t="s">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A715" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="B715" s="68"/>
-      <c r="C715" s="68"/>
-    </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B715" s="64"/>
+      <c r="C715" s="64"/>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="13" t="s">
         <v>13</v>
       </c>
@@ -8691,7 +8687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="13">
         <v>1</v>
       </c>
@@ -8702,7 +8698,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" s="13">
         <v>2</v>
       </c>
@@ -8713,7 +8709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" s="13">
         <v>3</v>
       </c>
@@ -8724,7 +8720,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="13">
         <v>4</v>
       </c>
@@ -8735,157 +8731,157 @@
         <v>25</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="16"/>
       <c r="B721" s="17"/>
       <c r="C721" s="18"/>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A722" s="69" t="s">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A722" s="66" t="s">
         <v>367</v>
       </c>
-      <c r="B722" s="69"/>
-      <c r="C722" s="69"/>
-    </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B722" s="66"/>
+      <c r="C722" s="66"/>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B723" s="52" t="s">
+      <c r="B723" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C723" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="24">
         <v>1</v>
       </c>
-      <c r="B724" s="54" t="s">
+      <c r="B724" s="51" t="s">
         <v>368</v>
       </c>
       <c r="C724" s="15" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="24">
         <v>2</v>
       </c>
-      <c r="B725" s="54" t="s">
+      <c r="B725" s="51" t="s">
         <v>369</v>
       </c>
       <c r="C725" s="15" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="24">
         <v>3</v>
       </c>
-      <c r="B726" s="54" t="s">
+      <c r="B726" s="51" t="s">
         <v>113</v>
       </c>
       <c r="C726" s="15" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="24">
         <v>4</v>
       </c>
-      <c r="B727" s="54" t="s">
+      <c r="B727" s="51" t="s">
         <v>370</v>
       </c>
       <c r="C727" s="15" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="24">
         <v>5</v>
       </c>
-      <c r="B728" s="54" t="s">
+      <c r="B728" s="51" t="s">
         <v>371</v>
       </c>
       <c r="C728" s="15" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="24">
         <v>6</v>
       </c>
-      <c r="B729" s="54" t="s">
+      <c r="B729" s="51" t="s">
         <v>372</v>
       </c>
       <c r="C729" s="15" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="24">
         <v>7</v>
       </c>
-      <c r="B730" s="54" t="s">
+      <c r="B730" s="51" t="s">
         <v>252</v>
       </c>
       <c r="C730" s="15" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="24">
         <v>8</v>
       </c>
-      <c r="B731" s="54" t="s">
+      <c r="B731" s="51" t="s">
         <v>45</v>
       </c>
       <c r="C731" s="15" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="24">
         <v>9</v>
       </c>
-      <c r="B732" s="54" t="s">
+      <c r="B732" s="51" t="s">
         <v>373</v>
       </c>
       <c r="C732" s="15" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A733" s="57">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A733" s="54">
         <v>10</v>
       </c>
-      <c r="B733" s="58" t="s">
+      <c r="B733" s="55" t="s">
         <v>24</v>
       </c>
       <c r="C733" s="15" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A734" s="55"/>
-      <c r="B734" s="56"/>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A734" s="52"/>
+      <c r="B734" s="53"/>
       <c r="C734" s="16"/>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A735" s="55"/>
-      <c r="B735" s="56"/>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A735" s="52"/>
+      <c r="B735" s="53"/>
       <c r="C735" s="16"/>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A736" s="68" t="s">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A736" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B736" s="68"/>
-      <c r="C736" s="68"/>
-    </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B736" s="64"/>
+      <c r="C736" s="64"/>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="13" t="s">
         <v>13</v>
       </c>
@@ -8896,7 +8892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="13">
         <v>1</v>
       </c>
@@ -8907,7 +8903,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="13">
         <v>2</v>
       </c>
@@ -8918,7 +8914,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="13">
         <v>3</v>
       </c>
@@ -8929,7 +8925,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" s="13">
         <v>4</v>
       </c>
@@ -8940,7 +8936,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="13">
         <v>5</v>
       </c>
@@ -8951,7 +8947,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" s="13">
         <v>6</v>
       </c>
@@ -8962,7 +8958,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="13">
         <v>7</v>
       </c>
@@ -8973,35 +8969,35 @@
         <v>405</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A745" s="37">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A745" s="34">
         <v>8</v>
       </c>
-      <c r="B745" s="38" t="s">
+      <c r="B745" s="35" t="s">
         <v>24</v>
       </c>
       <c r="C745" s="15" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="16"/>
       <c r="B746" s="17"/>
       <c r="C746" s="16"/>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" s="16"/>
       <c r="B747" s="17"/>
       <c r="C747" s="16"/>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A748" s="68" t="s">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A748" s="64" t="s">
         <v>381</v>
       </c>
-      <c r="B748" s="68"/>
-      <c r="C748" s="68"/>
-    </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B748" s="64"/>
+      <c r="C748" s="64"/>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" s="13" t="s">
         <v>13</v>
       </c>
@@ -9012,161 +9008,161 @@
         <v>15</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" s="13">
         <v>1</v>
       </c>
-      <c r="B750" s="36" t="s">
+      <c r="B750" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="C750" s="59" t="s">
+      <c r="C750" s="56" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="13">
         <v>2</v>
       </c>
-      <c r="B751" s="60" t="s">
+      <c r="B751" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="C751" s="60" t="s">
+      <c r="C751" s="57" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="13">
         <v>3</v>
       </c>
-      <c r="B752" s="60" t="s">
+      <c r="B752" s="57" t="s">
         <v>385</v>
       </c>
-      <c r="C752" s="60" t="s">
+      <c r="C752" s="57" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="13">
         <v>4</v>
       </c>
-      <c r="B753" s="60" t="s">
+      <c r="B753" s="57" t="s">
         <v>387</v>
       </c>
-      <c r="C753" s="60" t="s">
+      <c r="C753" s="57" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="13">
         <v>5</v>
       </c>
-      <c r="B754" s="60" t="s">
+      <c r="B754" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="C754" s="60" t="s">
+      <c r="C754" s="57" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="13">
         <v>6</v>
       </c>
-      <c r="B755" s="60" t="s">
+      <c r="B755" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C755" s="60" t="s">
+      <c r="C755" s="57" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A758" s="69" t="s">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A758" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="B758" s="69"/>
-      <c r="C758" s="69"/>
-    </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B758" s="66"/>
+      <c r="C758" s="66"/>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B759" s="52" t="s">
+      <c r="B759" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C759" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="24">
         <v>1</v>
       </c>
-      <c r="B760" s="54" t="s">
+      <c r="B760" s="51" t="s">
         <v>391</v>
       </c>
       <c r="C760" s="15" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="24">
         <v>2</v>
       </c>
-      <c r="B761" s="54" t="s">
+      <c r="B761" s="51" t="s">
         <v>392</v>
       </c>
       <c r="C761" s="15" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="24">
         <v>3</v>
       </c>
-      <c r="B762" s="54" t="s">
+      <c r="B762" s="51" t="s">
         <v>144</v>
       </c>
       <c r="C762" s="15" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="24">
         <v>4</v>
       </c>
-      <c r="B763" s="54" t="s">
+      <c r="B763" s="51" t="s">
         <v>146</v>
       </c>
       <c r="C763" s="15" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="24">
         <v>5</v>
       </c>
-      <c r="B764" s="54" t="s">
+      <c r="B764" s="51" t="s">
         <v>124</v>
       </c>
       <c r="C764" s="15" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" s="24">
         <v>6</v>
       </c>
-      <c r="B765" s="54" t="s">
+      <c r="B765" s="51" t="s">
         <v>307</v>
       </c>
       <c r="C765" s="15" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A766" s="57">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A766" s="54">
         <v>7</v>
       </c>
-      <c r="B766" s="58" t="s">
+      <c r="B766" s="55" t="s">
         <v>24</v>
       </c>
       <c r="C766" s="15" t="s">
@@ -9175,44 +9171,28 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A524:C524"/>
-    <mergeCell ref="A407:C407"/>
-    <mergeCell ref="A438:C438"/>
-    <mergeCell ref="A447:C447"/>
-    <mergeCell ref="A456:C456"/>
-    <mergeCell ref="A480:C480"/>
-    <mergeCell ref="A490:C490"/>
-    <mergeCell ref="A500:C500"/>
-    <mergeCell ref="A511:C511"/>
-    <mergeCell ref="A648:C648"/>
-    <mergeCell ref="A532:C532"/>
-    <mergeCell ref="A540:C540"/>
-    <mergeCell ref="A551:C551"/>
-    <mergeCell ref="A559:C559"/>
-    <mergeCell ref="A568:C568"/>
-    <mergeCell ref="A579:C579"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A361:C361"/>
+    <mergeCell ref="A471:C471"/>
+    <mergeCell ref="A396:C396"/>
+    <mergeCell ref="A268:C268"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A371:C371"/>
+    <mergeCell ref="A416:C416"/>
+    <mergeCell ref="A428:C428"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A339:C339"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A259:C259"/>
     <mergeCell ref="A722:C722"/>
     <mergeCell ref="A736:C736"/>
     <mergeCell ref="A748:C748"/>
@@ -9229,28 +9209,44 @@
     <mergeCell ref="A611:C611"/>
     <mergeCell ref="A625:C625"/>
     <mergeCell ref="A637:C637"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A339:C339"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A361:C361"/>
-    <mergeCell ref="A471:C471"/>
-    <mergeCell ref="A396:C396"/>
-    <mergeCell ref="A268:C268"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A371:C371"/>
-    <mergeCell ref="A416:C416"/>
-    <mergeCell ref="A428:C428"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A648:C648"/>
+    <mergeCell ref="A532:C532"/>
+    <mergeCell ref="A540:C540"/>
+    <mergeCell ref="A551:C551"/>
+    <mergeCell ref="A559:C559"/>
+    <mergeCell ref="A568:C568"/>
+    <mergeCell ref="A579:C579"/>
+    <mergeCell ref="A524:C524"/>
+    <mergeCell ref="A407:C407"/>
+    <mergeCell ref="A438:C438"/>
+    <mergeCell ref="A447:C447"/>
+    <mergeCell ref="A456:C456"/>
+    <mergeCell ref="A480:C480"/>
+    <mergeCell ref="A490:C490"/>
+    <mergeCell ref="A500:C500"/>
+    <mergeCell ref="A511:C511"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
